--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <r>
       <t>Instruction:</t>
@@ -101,13 +101,13 @@
     <t>HouseDetail View</t>
   </si>
   <si>
-    <t xml:space="preserve">Created the view component for the details page. Implemented the layout based on the mockup. </t>
+    <t>Created the view component for the details page. Implemented the layout based on the mockup.</t>
   </si>
   <si>
     <t>HouseDetails Component</t>
   </si>
   <si>
-    <t>Using the FetchHouse Action from the vuex store populate the template and implement the design.</t>
+    <t>Using the FetchHouse Action from the vuex store to populate the template and implemented the design.</t>
   </si>
   <si>
     <t xml:space="preserve">HouseCreateEdit View </t>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>An approximate cost incurred for app troubleshooting and repair.</t>
+  </si>
+  <si>
+    <t>Cursor animation</t>
+  </si>
+  <si>
+    <t>A fun little touch to make browsing through the listings somewhat more exciting.</t>
   </si>
   <si>
     <t>Total amount of hours</t>
@@ -2310,7 +2316,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
@@ -2604,11 +2610,21 @@
       <c r="F18" s="10"/>
     </row>
     <row r="19" ht="17" customHeight="1" spans="1:6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="15"/>
+      <c r="A19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="12">
+        <v>2</v>
+      </c>
+      <c r="C19" s="13">
+        <v>44969</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" ht="17" customHeight="1" spans="1:6">
@@ -2701,7 +2717,7 @@
     </row>
     <row r="31" ht="16.25" customHeight="1" spans="1:6">
       <c r="A31" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B31" s="22">
         <f>SUMIF(E4:E29,"&lt;&gt;x",B4:B29)</f>
